--- a/examples/discriminative_task/生成式搜索问题测评集-20250414.xlsx
+++ b/examples/discriminative_task/生成式搜索问题测评集-20250414.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="529">
   <si>
     <t>用户问题</t>
   </si>
@@ -751,67 +751,34 @@
     <t>2021年以来我的所有工资收入</t>
   </si>
   <si>
-    <t>查询2024年全年工资总额</t>
-  </si>
-  <si>
-    <t>从2020年到现在我累计发了多少工资</t>
-  </si>
-  <si>
-    <t>我在2023年的总工资收入是多少</t>
-  </si>
-  <si>
-    <t>请汇总自2021年以来我获得的所有薪资总额</t>
-  </si>
-  <si>
-    <t>自2021年起至现在，我的总工资收入为多少</t>
-  </si>
-  <si>
-    <t>去年我总共收到了多少工资</t>
-  </si>
-  <si>
-    <t>今年我总共收到了多少工资</t>
-  </si>
-  <si>
-    <t>分析我上年的薪酬变化</t>
-  </si>
-  <si>
-    <t>我去年一年内的工资总额是多少</t>
-  </si>
-  <si>
-    <t>前年我所发放的工资总和</t>
-  </si>
-  <si>
-    <t>查询一下我上一年度的工资总收入</t>
-  </si>
-  <si>
-    <t>上年度我的工资发放总额是多少</t>
-  </si>
-  <si>
-    <t>我去年一整年工资收入的总计数字</t>
-  </si>
-  <si>
-    <t>在过去的一年里我的工资收入是多少</t>
-  </si>
-  <si>
-    <t>去年的每个月，我的工资分别是多少，加起来总数是多少</t>
-  </si>
-  <si>
-    <t>前两年我的工资收入是多少</t>
-  </si>
-  <si>
-    <t>查一下我上一季度的工资情况</t>
-  </si>
-  <si>
-    <t>分析一下我前六个月的工资情况</t>
-  </si>
-  <si>
-    <t>上半年我的月薪是如何变化的</t>
-  </si>
-  <si>
-    <t>我在本年度前半段的工资情况</t>
-  </si>
-  <si>
-    <t>分析一下最近这半年来我的工资变化</t>
+    <t>如何查找2024年的工资明细</t>
+  </si>
+  <si>
+    <t>如何搜索并查看我2022年的工资条</t>
+  </si>
+  <si>
+    <t>如何找到2024年我的工资发放记录</t>
+  </si>
+  <si>
+    <t>怎么查到我2024年的每月工资详情</t>
+  </si>
+  <si>
+    <t>怎样定位到2023年我的工资单</t>
+  </si>
+  <si>
+    <t>如何获取2024年的工资信息</t>
+  </si>
+  <si>
+    <t>如何筛选出2023年我的全部工资交易</t>
+  </si>
+  <si>
+    <t>怎样操作才能看到2024年的工资总结</t>
+  </si>
+  <si>
+    <t>如何搜索到2022到2024年期间所有的工资入账记录</t>
+  </si>
+  <si>
+    <t>2025年1月工资单</t>
   </si>
   <si>
     <t>预期菜单</t>
@@ -6883,10 +6850,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="明细查询-薪资场景"/>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -7216,13 +7183,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D18" s="4">
-        <v>2020</v>
+        <v>202201</v>
       </c>
       <c r="E18" s="10">
-        <v>2025</v>
+        <v>202212</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -7237,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="D19" s="4">
-        <v>202301</v>
+        <v>202401</v>
       </c>
       <c r="E19" s="10">
-        <v>202312</v>
+        <v>202412</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -7252,13 +7219,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D20" s="4">
-        <v>2021</v>
+        <v>202401</v>
       </c>
       <c r="E20" s="10">
-        <v>2025</v>
+        <v>202412</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -7270,13 +7237,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D21" s="4">
-        <v>2021</v>
+        <v>202301</v>
       </c>
       <c r="E21" s="10">
-        <v>2025</v>
+        <v>202312</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -7309,10 +7276,10 @@
         <v>9</v>
       </c>
       <c r="D23" s="4">
-        <v>202501</v>
+        <v>202301</v>
       </c>
       <c r="E23" s="10">
-        <v>202504</v>
+        <v>202312</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -7342,13 +7309,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4">
-        <v>202401</v>
+        <v>2022</v>
       </c>
       <c r="E25" s="10">
-        <v>202412</v>
+        <v>2024</v>
       </c>
       <c r="F25" s="4"/>
     </row>
@@ -7363,214 +7330,16 @@
         <v>9</v>
       </c>
       <c r="D26" s="4">
-        <v>202301</v>
+        <v>202501</v>
       </c>
       <c r="E26" s="10">
-        <v>202312</v>
+        <v>202501</v>
       </c>
       <c r="F26" s="4"/>
-    </row>
-    <row r="27" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4">
-        <v>202401</v>
-      </c>
-      <c r="E27" s="10">
-        <v>202412</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="4">
-        <v>202401</v>
-      </c>
-      <c r="E28" s="10">
-        <v>202412</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4">
-        <v>202401</v>
-      </c>
-      <c r="E29" s="10">
-        <v>202412</v>
-      </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A30" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="4">
-        <v>202401</v>
-      </c>
-      <c r="E30" s="10">
-        <v>202412</v>
-      </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A31" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4">
-        <v>202401</v>
-      </c>
-      <c r="E31" s="10">
-        <v>202412</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A32" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2023</v>
-      </c>
-      <c r="E32" s="10">
-        <v>2024</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A33" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4">
-        <v>202501</v>
-      </c>
-      <c r="E33" s="10">
-        <v>202503</v>
-      </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="4">
-        <v>202410</v>
-      </c>
-      <c r="E34" s="10">
-        <v>202503</v>
-      </c>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A35" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="4">
-        <v>202501</v>
-      </c>
-      <c r="E35" s="10">
-        <v>202504</v>
-      </c>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A36" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4">
-        <v>202501</v>
-      </c>
-      <c r="E36" s="10">
-        <v>202504</v>
-      </c>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4">
-        <v>202410</v>
-      </c>
-      <c r="E37" s="10">
-        <v>202503</v>
-      </c>
-      <c r="F37" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C26 C27:C1048576">
       <formula1>"年,月,"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7600,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -7608,1851 +7377,1851 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A4" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A7" s="3" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A8" s="3" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A10" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A25" s="3" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A26" s="3" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A27" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A28" s="3" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A29" s="3" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A30" s="3" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C30" s="3"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A31" s="3" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C31" s="3"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A32" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C32" s="3"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A33" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C33" s="3"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="12" spans="1:3">
       <c r="A34" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C34" s="3"/>
     </row>
     <row r="35" ht="12" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" ht="12" spans="1:3">
       <c r="A36" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C36" s="4"/>
     </row>
     <row r="37" ht="12" spans="1:3">
       <c r="A37" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C37" s="4"/>
     </row>
     <row r="38" ht="12" spans="1:3">
       <c r="A38" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4"/>
     </row>
     <row r="39" ht="12" spans="1:3">
       <c r="A39" s="4" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C39" s="4"/>
     </row>
     <row r="40" ht="12" spans="1:3">
       <c r="A40" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C40" s="5"/>
     </row>
     <row r="41" ht="12" spans="1:3">
       <c r="A41" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C41" s="4"/>
     </row>
     <row r="42" ht="12" spans="1:3">
       <c r="A42" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C42" s="4"/>
     </row>
     <row r="43" ht="12" spans="1:3">
       <c r="A43" s="4" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C43" s="4"/>
     </row>
     <row r="44" ht="12" spans="1:3">
       <c r="A44" s="4" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C44" s="4"/>
     </row>
     <row r="45" ht="12" spans="1:3">
       <c r="A45" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C45" s="4"/>
     </row>
     <row r="46" ht="12" spans="1:3">
       <c r="A46" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C46" s="4"/>
     </row>
     <row r="47" ht="12" spans="1:3">
       <c r="A47" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C47" s="4"/>
     </row>
     <row r="48" ht="12" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C48" s="4"/>
     </row>
     <row r="49" ht="12" spans="1:3">
       <c r="A49" s="4" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" ht="12" spans="1:3">
       <c r="A50" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C50" s="4"/>
     </row>
     <row r="51" ht="12" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C51" s="4"/>
     </row>
     <row r="52" ht="12" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C52" s="4"/>
     </row>
     <row r="53" ht="12" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C53" s="4"/>
     </row>
     <row r="54" ht="12" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C54" s="4"/>
     </row>
     <row r="55" ht="12" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C55" s="4"/>
     </row>
     <row r="56" ht="12" spans="1:3">
       <c r="A56" s="4" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C56" s="4"/>
     </row>
     <row r="57" ht="12" spans="1:3">
       <c r="A57" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C57" s="4"/>
     </row>
     <row r="58" ht="12" spans="1:3">
       <c r="A58" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C58" s="4"/>
     </row>
     <row r="59" ht="12" spans="1:3">
       <c r="A59" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C59" s="4"/>
     </row>
     <row r="60" ht="12" spans="1:3">
       <c r="A60" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C60" s="4"/>
     </row>
     <row r="61" ht="12" spans="1:3">
       <c r="A61" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C61" s="4"/>
     </row>
     <row r="62" ht="12" spans="1:3">
       <c r="A62" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C62" s="4"/>
     </row>
     <row r="63" ht="12" spans="1:3">
       <c r="A63" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="C63" s="4"/>
     </row>
     <row r="64" ht="12" spans="1:3">
       <c r="A64" s="4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="C64" s="4"/>
     </row>
     <row r="65" ht="12" spans="1:3">
       <c r="A65" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C65" s="4"/>
     </row>
     <row r="66" ht="12" spans="1:3">
       <c r="A66" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C66" s="4"/>
     </row>
     <row r="67" ht="12" spans="1:3">
       <c r="A67" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C67" s="4"/>
     </row>
     <row r="68" ht="12" spans="1:3">
       <c r="A68" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C68" s="4"/>
     </row>
     <row r="69" ht="12" spans="1:3">
       <c r="A69" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C69" s="4"/>
     </row>
     <row r="70" ht="12" spans="1:3">
       <c r="A70" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="C70" s="4"/>
     </row>
     <row r="71" ht="12" spans="1:3">
       <c r="A71" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C71" s="4"/>
     </row>
     <row r="72" ht="12" spans="1:3">
       <c r="A72" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C72" s="4"/>
     </row>
     <row r="73" ht="12" spans="1:3">
       <c r="A73" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C73" s="4"/>
     </row>
     <row r="74" ht="12" spans="1:3">
       <c r="A74" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C74" s="4"/>
     </row>
     <row r="75" ht="12" spans="1:3">
       <c r="A75" s="4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="C75" s="4"/>
     </row>
     <row r="76" ht="12" spans="1:3">
       <c r="A76" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C76" s="4"/>
     </row>
     <row r="77" ht="12" spans="1:3">
       <c r="A77" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C77" s="4"/>
     </row>
     <row r="78" ht="12" spans="1:3">
       <c r="A78" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C78" s="4"/>
     </row>
     <row r="79" ht="12" spans="1:3">
       <c r="A79" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C79" s="4"/>
     </row>
     <row r="80" ht="12" spans="1:3">
       <c r="A80" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C80" s="4"/>
     </row>
     <row r="81" ht="12" spans="1:3">
       <c r="A81" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C81" s="4"/>
     </row>
     <row r="82" ht="12" spans="1:3">
       <c r="A82" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C82" s="4"/>
     </row>
     <row r="83" ht="12" spans="1:3">
       <c r="A83" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C83" s="4"/>
     </row>
     <row r="84" ht="12" spans="1:3">
       <c r="A84" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C84" s="4"/>
     </row>
     <row r="85" ht="12" spans="1:3">
       <c r="A85" s="4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C85" s="4"/>
     </row>
     <row r="86" ht="12" spans="1:3">
       <c r="A86" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C86" s="4"/>
     </row>
     <row r="87" ht="12" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C87" s="4"/>
     </row>
     <row r="88" ht="12" spans="1:3">
       <c r="A88" s="4" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C88" s="4"/>
     </row>
     <row r="89" ht="12" spans="1:3">
       <c r="A89" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C89" s="4"/>
     </row>
     <row r="90" ht="12" spans="1:3">
       <c r="A90" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="C90" s="4"/>
     </row>
     <row r="91" ht="12" spans="1:3">
       <c r="A91" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C91" s="4"/>
     </row>
     <row r="92" ht="12" spans="1:3">
       <c r="A92" s="4" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C92" s="4"/>
     </row>
     <row r="93" ht="12" spans="1:3">
       <c r="A93" s="4" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="C93" s="4"/>
     </row>
     <row r="94" ht="12" spans="1:3">
       <c r="A94" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="C94" s="4"/>
     </row>
     <row r="95" ht="12" spans="1:3">
       <c r="A95" s="4" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C95" s="4"/>
     </row>
     <row r="96" ht="12" spans="1:3">
       <c r="A96" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C96" s="4"/>
     </row>
     <row r="97" ht="12" spans="1:3">
       <c r="A97" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C97" s="4"/>
     </row>
     <row r="98" ht="12" spans="1:3">
       <c r="A98" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C98" s="4"/>
     </row>
     <row r="99" ht="12" spans="1:3">
       <c r="A99" s="4" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C99" s="4"/>
     </row>
     <row r="100" ht="12" spans="1:3">
       <c r="A100" s="4" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C100" s="4"/>
     </row>
     <row r="101" ht="12" spans="1:3">
       <c r="A101" s="4" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C101" s="4"/>
     </row>
     <row r="102" ht="12" spans="1:3">
       <c r="A102" s="4" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C102" s="4"/>
     </row>
     <row r="103" ht="12" spans="1:3">
       <c r="A103" s="4" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C103" s="4"/>
     </row>
     <row r="104" ht="12" spans="1:3">
       <c r="A104" s="4" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="C104" s="4"/>
     </row>
     <row r="105" ht="12" spans="1:3">
       <c r="A105" s="4" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="C105" s="4"/>
     </row>
     <row r="106" ht="12" spans="1:3">
       <c r="A106" s="4" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C106" s="4"/>
     </row>
     <row r="107" ht="12" spans="1:3">
       <c r="A107" s="4" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C107" s="4"/>
     </row>
     <row r="108" ht="12" spans="1:3">
       <c r="A108" s="4" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C108" s="4"/>
     </row>
     <row r="109" ht="12" spans="1:3">
       <c r="A109" s="4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C109" s="4"/>
     </row>
     <row r="110" ht="12" spans="1:3">
       <c r="A110" s="4" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C110" s="4"/>
     </row>
     <row r="111" ht="12" spans="1:3">
       <c r="A111" s="4" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C111" s="4"/>
     </row>
     <row r="112" ht="12" spans="1:3">
       <c r="A112" s="4" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C112" s="4"/>
     </row>
     <row r="113" ht="12" spans="1:3">
       <c r="A113" s="4" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="C113" s="4"/>
     </row>
     <row r="114" ht="12" spans="1:3">
       <c r="A114" s="4" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C114" s="4"/>
     </row>
     <row r="115" ht="12" spans="1:3">
       <c r="A115" s="4" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C115" s="4"/>
     </row>
     <row r="116" ht="12" spans="1:3">
       <c r="A116" s="4" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C116" s="4"/>
     </row>
     <row r="117" ht="12" spans="1:3">
       <c r="A117" s="4" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C117" s="4"/>
     </row>
     <row r="118" ht="12" spans="1:3">
       <c r="A118" s="4" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C118" s="4"/>
     </row>
     <row r="119" ht="12" spans="1:3">
       <c r="A119" s="4" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C119" s="4"/>
     </row>
     <row r="120" ht="12" spans="1:3">
       <c r="A120" s="4" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C120" s="4"/>
     </row>
     <row r="121" ht="12" spans="1:3">
       <c r="A121" s="4" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C121" s="4"/>
     </row>
     <row r="122" ht="12" spans="1:3">
       <c r="A122" s="4" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C122" s="4"/>
     </row>
     <row r="123" ht="12" spans="1:3">
       <c r="A123" s="4" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C123" s="4"/>
     </row>
     <row r="124" ht="12" spans="1:3">
       <c r="A124" s="4" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C124" s="4"/>
     </row>
     <row r="125" ht="12" spans="1:3">
       <c r="A125" s="4" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C125" s="4"/>
     </row>
     <row r="126" ht="12" spans="1:3">
       <c r="A126" s="4" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C126" s="4"/>
     </row>
     <row r="127" ht="12" spans="1:3">
       <c r="A127" s="4" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C127" s="4"/>
     </row>
     <row r="128" ht="12" spans="1:3">
       <c r="A128" s="4" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C128" s="4"/>
     </row>
     <row r="129" ht="12" spans="1:3">
       <c r="A129" s="4" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C129" s="4"/>
     </row>
     <row r="130" ht="12" spans="1:3">
       <c r="A130" s="4" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C130" s="4"/>
     </row>
     <row r="131" ht="12" spans="1:3">
       <c r="A131" s="4" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C131" s="4"/>
     </row>
     <row r="132" ht="12" spans="1:3">
       <c r="A132" s="4" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C132" s="4"/>
     </row>
     <row r="133" ht="12" spans="1:3">
       <c r="A133" s="4" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C133" s="4"/>
     </row>
     <row r="134" ht="12" spans="1:3">
       <c r="A134" s="4" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C134" s="4"/>
     </row>
     <row r="135" ht="12" spans="1:3">
       <c r="A135" s="4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C135" s="4"/>
     </row>
     <row r="136" ht="12" spans="1:3">
       <c r="A136" s="4" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C136" s="4"/>
     </row>
     <row r="137" ht="12" spans="1:3">
       <c r="A137" s="4" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C137" s="4"/>
     </row>
     <row r="138" ht="12" spans="1:3">
       <c r="A138" s="4" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C138" s="4"/>
     </row>
     <row r="139" ht="12" spans="1:3">
       <c r="A139" s="4" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C139" s="4"/>
     </row>
     <row r="140" ht="12" spans="1:3">
       <c r="A140" s="4" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C140" s="4"/>
     </row>
     <row r="141" ht="12" spans="1:3">
       <c r="A141" s="4" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C141" s="4"/>
     </row>
     <row r="142" ht="12" spans="1:3">
       <c r="A142" s="4" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C142" s="4"/>
     </row>
     <row r="143" ht="12" spans="1:3">
       <c r="A143" s="4" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="C143" s="4"/>
     </row>
     <row r="144" ht="12" spans="1:3">
       <c r="A144" s="4" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C144" s="4"/>
     </row>
     <row r="145" ht="12" spans="1:3">
       <c r="A145" s="4" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C145" s="4"/>
     </row>
     <row r="146" ht="12" spans="1:3">
       <c r="A146" s="4" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C146" s="4"/>
     </row>
     <row r="147" ht="12" spans="1:3">
       <c r="A147" s="4" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C147" s="4"/>
     </row>
     <row r="148" ht="12" spans="1:3">
       <c r="A148" s="4" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C148" s="4"/>
     </row>
     <row r="149" ht="12" spans="1:3">
       <c r="A149" s="4" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C149" s="4"/>
     </row>
     <row r="150" ht="12" spans="1:3">
       <c r="A150" s="4" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="C150" s="4"/>
     </row>
     <row r="151" ht="12" spans="1:3">
       <c r="A151" s="4" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C151" s="4"/>
     </row>
     <row r="152" ht="12" spans="1:3">
       <c r="A152" s="4" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C152" s="4"/>
     </row>
     <row r="153" ht="12" spans="1:3">
       <c r="A153" s="4" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C153" s="4"/>
     </row>
     <row r="154" ht="12" spans="1:3">
       <c r="A154" s="4" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C154" s="4"/>
     </row>
     <row r="155" ht="12" spans="1:3">
       <c r="A155" s="4" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C155" s="4"/>
     </row>
     <row r="156" ht="12" spans="1:3">
       <c r="A156" s="4" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="C156" s="4"/>
     </row>
     <row r="157" ht="12" spans="1:3">
       <c r="A157" s="4" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C157" s="4"/>
     </row>
     <row r="158" ht="12" spans="1:3">
       <c r="A158" s="4" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C158" s="4"/>
     </row>
     <row r="159" ht="12" spans="1:3">
       <c r="A159" s="4" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C159" s="4"/>
     </row>
     <row r="160" ht="12" spans="1:3">
       <c r="A160" s="4" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C160" s="4"/>
     </row>
     <row r="161" ht="12" spans="1:3">
       <c r="A161" s="4" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C161" s="4"/>
     </row>
     <row r="162" ht="12" spans="1:3">
       <c r="A162" s="4" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C162" s="4"/>
     </row>
     <row r="163" ht="12" spans="1:3">
       <c r="A163" s="4" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C163" s="4"/>
     </row>
     <row r="164" ht="12" spans="1:3">
       <c r="A164" s="4" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C164" s="4"/>
     </row>
     <row r="165" ht="12" spans="1:3">
       <c r="A165" s="4" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C165" s="4"/>
     </row>
     <row r="166" ht="12" spans="1:3">
       <c r="A166" s="4" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="C166" s="4"/>
     </row>
     <row r="167" ht="12" spans="1:3">
       <c r="A167" s="4" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C167" s="4"/>
     </row>
     <row r="168" ht="12" spans="1:3">
       <c r="A168" s="4" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C168" s="4"/>
     </row>
     <row r="169" ht="12" spans="1:3">
       <c r="A169" s="4" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C169" s="4"/>
     </row>
     <row r="170" ht="12" spans="1:3">
       <c r="A170" s="4" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C170" s="4"/>
     </row>
     <row r="171" ht="12" spans="1:3">
       <c r="A171" s="4" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C171" s="4"/>
     </row>
     <row r="172" ht="12" spans="1:3">
       <c r="A172" s="4" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C172" s="4"/>
     </row>
     <row r="173" ht="12" spans="1:3">
       <c r="A173" s="4" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C173" s="4"/>
     </row>
     <row r="174" ht="12" spans="1:3">
       <c r="A174" s="4" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C174" s="4"/>
     </row>
     <row r="175" ht="12" spans="1:3">
       <c r="A175" s="4" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C175" s="4"/>
     </row>
     <row r="176" ht="12" spans="1:3">
       <c r="A176" s="4" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C176" s="4"/>
     </row>
     <row r="177" ht="12" spans="1:3">
       <c r="A177" s="4" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C177" s="4"/>
     </row>
     <row r="178" ht="12" spans="1:3">
       <c r="A178" s="4" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C178" s="4"/>
     </row>
     <row r="179" ht="12" spans="1:3">
       <c r="A179" s="4" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="C179" s="4"/>
     </row>
     <row r="180" ht="12" spans="1:3">
       <c r="A180" s="4" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C180" s="4"/>
     </row>
     <row r="181" ht="12" spans="1:3">
       <c r="A181" s="4" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C181" s="4"/>
     </row>
     <row r="182" ht="12" spans="1:3">
       <c r="A182" s="4" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C182" s="4"/>
     </row>
     <row r="183" ht="12" spans="1:3">
       <c r="A183" s="4" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C183" s="4"/>
     </row>
     <row r="184" ht="12" spans="1:3">
       <c r="A184" s="4" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C184" s="4"/>
     </row>
     <row r="185" ht="12" spans="1:3">
       <c r="A185" s="4" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C185" s="4"/>
     </row>
     <row r="186" ht="12" spans="1:3">
       <c r="A186" s="4" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C186" s="4"/>
     </row>
     <row r="187" ht="12" spans="1:3">
       <c r="A187" s="4" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C187" s="4"/>
     </row>
     <row r="188" ht="12" spans="1:3">
       <c r="A188" s="4" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="C188" s="4"/>
     </row>
     <row r="189" ht="12" spans="1:3">
       <c r="A189" s="4" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C189" s="4"/>
     </row>
     <row r="190" ht="12" spans="1:3">
       <c r="A190" s="4" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C190" s="4"/>
     </row>
     <row r="191" ht="12" spans="1:3">
       <c r="A191" s="4" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C191" s="4"/>
     </row>
     <row r="192" ht="12" spans="1:3">
       <c r="A192" s="4" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="C192" s="4"/>
     </row>
     <row r="193" ht="12" spans="1:3">
       <c r="A193" s="4" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C193" s="4"/>
     </row>
     <row r="194" ht="12" spans="1:3">
       <c r="A194" s="4" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="C194" s="4"/>
     </row>
     <row r="195" ht="12" spans="1:3">
       <c r="A195" s="4" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="C195" s="4"/>
     </row>
     <row r="196" ht="12" spans="1:3">
       <c r="A196" s="4" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C196" s="4"/>
     </row>
     <row r="197" ht="12" spans="1:3">
       <c r="A197" s="4" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C197" s="4"/>
     </row>
     <row r="198" ht="12" spans="1:3">
       <c r="A198" s="4" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C198" s="4"/>
     </row>
     <row r="199" ht="12" spans="1:3">
       <c r="A199" s="4" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C199" s="4"/>
     </row>
     <row r="200" ht="12" spans="1:3">
       <c r="A200" s="4" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C200" s="4"/>
     </row>
     <row r="201" ht="12" spans="1:3">
       <c r="A201" s="4" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="C201" s="4"/>
     </row>
     <row r="202" ht="12" spans="1:3">
       <c r="A202" s="4" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C202" s="4"/>
     </row>
     <row r="203" ht="12" spans="1:3">
       <c r="A203" s="6" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
     </row>
     <row r="204" ht="12" spans="1:3">
       <c r="A204" s="6" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
     </row>
     <row r="205" customHeight="1" spans="1:3">
       <c r="A205" s="6" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="5"/>
     </row>
     <row r="206" customHeight="1" spans="1:3">
       <c r="A206" s="6" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
     </row>
     <row r="207" customHeight="1" spans="1:3">
       <c r="A207" s="6" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
     </row>
     <row r="208" customHeight="1" spans="1:3">
       <c r="A208" s="6" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
